--- a/medicine/Mort/Cimetière_de_Chirokaïa_Retchka/Cimetière_de_Chirokaïa_Retchka.xlsx
+++ b/medicine/Mort/Cimetière_de_Chirokaïa_Retchka/Cimetière_de_Chirokaïa_Retchka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chiroka%C3%AFa_Retchka</t>
+          <t>Cimetière_de_Chirokaïa_Retchka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Chirokaïa Retchka (Широкореченское кладбище) est le cimetière le plus grand de la ville d'Ékaterinbourg en Russie. C'est un exemple typique de cimetière de forêt, tel qu'on les affectionne en Russie. En effet les tombes sont disposées le long d'allées sous de hautes futaies. Il doit son nom au village de Chirokaïa Retchka (Rivière Large) qui dépend de la municipalité en dehors du centre urbain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chiroka%C3%AFa_Retchka</t>
+          <t>Cimetière_de_Chirokaïa_Retchka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été fondé en 1945, lorsque environ huit cents soldats et officiers de l'Armée rouge morts de leurs blessures ou de maladies, issus des hôpitaux de Sverdlovsk (nom de la ville à l'époque), y ont trouvé leur dernière demeure. Un mémorial a été érigé en leur honneur pour le trentenaire de leur inhumation en 1975. Le cimetière se situe à la limite ouest de la municipalité près de l'autoroute périphérique. Les tombes n'offrent pas d'intérêt artistique, mais l'endroit est un but de promenade fort agréable.
 Les personnalités enterrées sont des notabilités locales, comme des ouvriers héros du travail socialiste de l'époque soviétique ; le père de Boris Eltsine, Nikolaï Ignatievitch Eltsine (1906-1977) ; des académiciens, comme le zoologiste Stanislav Schwartz (1919-1976) ; des physiciens ; le compositeur et chef d'orchestre Alexandre Friedländer ; le poète-photographe alternatif local Starik Boukachine (1938-2005) ; des universitaires et journalistes, etc.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chiroka%C3%AFa_Retchka</t>
+          <t>Cimetière_de_Chirokaïa_Retchka</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Statue sur sa tombe de l'ancienne présidente du conseil municipal de Sverdlovsk, Anna Nikolaïevna Bytchkova
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Chiroka%C3%AFa_Retchka</t>
+          <t>Cimetière_de_Chirokaïa_Retchka</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Широкореченское кладбище » (voir la liste des auteurs).
 Sur les autres projets Wikimedia :
